--- a/Data/ROY Data/rookies_98_99.xlsx
+++ b/Data/ROY Data/rookies_98_99.xlsx
@@ -983,58 +983,58 @@
         <v>23</v>
       </c>
       <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>27</v>
+      </c>
+      <c r="H3">
+        <v>249</v>
+      </c>
+      <c r="I3">
+        <v>34</v>
+      </c>
+      <c r="J3">
+        <v>86</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3">
+        <v>9</v>
+      </c>
+      <c r="N3">
+        <v>13</v>
+      </c>
+      <c r="O3">
+        <v>24</v>
+      </c>
+      <c r="P3">
+        <v>54</v>
+      </c>
+      <c r="Q3">
+        <v>13</v>
+      </c>
+      <c r="R3">
+        <v>9</v>
+      </c>
+      <c r="S3">
         <v>2</v>
       </c>
-      <c r="G3">
-        <v>73</v>
-      </c>
-      <c r="H3">
-        <v>698</v>
-      </c>
-      <c r="I3">
-        <v>92</v>
-      </c>
-      <c r="J3">
-        <v>226</v>
-      </c>
-      <c r="K3">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <v>15</v>
-      </c>
-      <c r="M3">
-        <v>54</v>
-      </c>
-      <c r="N3">
+      <c r="T3">
+        <v>11</v>
+      </c>
+      <c r="U3">
+        <v>24</v>
+      </c>
+      <c r="V3">
         <v>78</v>
       </c>
-      <c r="O3">
-        <v>50</v>
-      </c>
-      <c r="P3">
-        <v>126</v>
-      </c>
-      <c r="Q3">
-        <v>43</v>
-      </c>
-      <c r="R3">
-        <v>22</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>35</v>
-      </c>
-      <c r="U3">
-        <v>79</v>
-      </c>
-      <c r="V3">
-        <v>241</v>
-      </c>
       <c r="W3">
-        <v>0.407</v>
+        <v>0.395</v>
       </c>
       <c r="X3">
         <v>0.2</v>
@@ -1043,16 +1043,16 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="Z3">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AA3">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="AB3">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AD3" t="s">
         <v>137</v>
@@ -1161,76 +1161,76 @@
         <v>20</v>
       </c>
       <c r="F5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>153</v>
+        <v>31</v>
       </c>
       <c r="H5">
-        <v>2191</v>
+        <v>320</v>
       </c>
       <c r="I5">
-        <v>317</v>
+        <v>44</v>
       </c>
       <c r="J5">
-        <v>812</v>
+        <v>117</v>
       </c>
       <c r="K5">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>197</v>
+        <v>14</v>
       </c>
       <c r="M5">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="N5">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="O5">
-        <v>84</v>
+        <v>15</v>
       </c>
       <c r="P5">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Q5">
-        <v>143</v>
+        <v>10</v>
       </c>
       <c r="R5">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="S5">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="U5">
-        <v>316</v>
+        <v>46</v>
       </c>
       <c r="V5">
-        <v>835</v>
+        <v>118</v>
       </c>
       <c r="W5">
-        <v>0.39</v>
+        <v>0.376</v>
       </c>
       <c r="X5">
-        <v>0.289</v>
+        <v>0.214</v>
       </c>
       <c r="Y5">
-        <v>0.652</v>
+        <v>0.675</v>
       </c>
       <c r="Z5">
-        <v>14.3</v>
+        <v>10.3</v>
       </c>
       <c r="AA5">
-        <v>5.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB5">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AC5">
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="AD5" t="s">
         <v>137</v>
@@ -1253,76 +1253,76 @@
         <v>20</v>
       </c>
       <c r="F6">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1001</v>
+        <v>50</v>
       </c>
       <c r="H6">
-        <v>33962</v>
+        <v>1758</v>
       </c>
       <c r="I6">
-        <v>5410</v>
+        <v>260</v>
       </c>
       <c r="J6">
-        <v>12412</v>
+        <v>605</v>
       </c>
       <c r="K6">
-        <v>1517</v>
+        <v>15</v>
       </c>
       <c r="L6">
-        <v>3999</v>
+        <v>74</v>
       </c>
       <c r="M6">
-        <v>2361</v>
+        <v>127</v>
       </c>
       <c r="N6">
-        <v>2943</v>
+        <v>169</v>
       </c>
       <c r="O6">
-        <v>529</v>
+        <v>30</v>
       </c>
       <c r="P6">
-        <v>3103</v>
+        <v>136</v>
       </c>
       <c r="Q6">
-        <v>5517</v>
+        <v>325</v>
       </c>
       <c r="R6">
-        <v>1172</v>
+        <v>78</v>
       </c>
       <c r="S6">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="T6">
-        <v>2134</v>
+        <v>146</v>
       </c>
       <c r="U6">
-        <v>1931</v>
+        <v>122</v>
       </c>
       <c r="V6">
-        <v>14698</v>
+        <v>662</v>
       </c>
       <c r="W6">
-        <v>0.436</v>
+        <v>0.43</v>
       </c>
       <c r="X6">
-        <v>0.379</v>
+        <v>0.203</v>
       </c>
       <c r="Y6">
-        <v>0.802</v>
+        <v>0.751</v>
       </c>
       <c r="Z6">
-        <v>33.9</v>
+        <v>35.2</v>
       </c>
       <c r="AA6">
-        <v>14.7</v>
+        <v>13.2</v>
       </c>
       <c r="AB6">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AC6">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="s">
         <v>137</v>
@@ -1345,76 +1345,76 @@
         <v>22</v>
       </c>
       <c r="F7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>22</v>
       </c>
       <c r="H7">
-        <v>12964</v>
+        <v>221</v>
       </c>
       <c r="I7">
-        <v>2076</v>
+        <v>30</v>
       </c>
       <c r="J7">
-        <v>4980</v>
+        <v>79</v>
       </c>
       <c r="K7">
-        <v>384</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>1104</v>
+        <v>18</v>
       </c>
       <c r="M7">
-        <v>1255</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>1433</v>
+        <v>3</v>
       </c>
       <c r="O7">
-        <v>275</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>877</v>
+        <v>17</v>
       </c>
       <c r="Q7">
-        <v>2092</v>
+        <v>33</v>
       </c>
       <c r="R7">
-        <v>390</v>
+        <v>6</v>
       </c>
       <c r="S7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>756</v>
+        <v>20</v>
       </c>
       <c r="U7">
-        <v>659</v>
+        <v>20</v>
       </c>
       <c r="V7">
-        <v>5791</v>
+        <v>65</v>
       </c>
       <c r="W7">
-        <v>0.417</v>
+        <v>0.38</v>
       </c>
       <c r="X7">
-        <v>0.348</v>
+        <v>0.167</v>
       </c>
       <c r="Y7">
-        <v>0.876</v>
+        <v>0.667</v>
       </c>
       <c r="Z7">
-        <v>19.9</v>
+        <v>10</v>
       </c>
       <c r="AA7">
-        <v>8.9</v>
+        <v>3</v>
       </c>
       <c r="AB7">
-        <v>1.3</v>
+        <v>0.8</v>
       </c>
       <c r="AC7">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD7" t="s">
         <v>137</v>
@@ -1621,76 +1621,76 @@
         <v>22</v>
       </c>
       <c r="F10">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>1541</v>
+        <v>50</v>
       </c>
       <c r="H10">
-        <v>46367</v>
+        <v>1760</v>
       </c>
       <c r="I10">
-        <v>9293</v>
+        <v>345</v>
       </c>
       <c r="J10">
-        <v>21339</v>
+        <v>766</v>
       </c>
       <c r="K10">
-        <v>2290</v>
+        <v>19</v>
       </c>
       <c r="L10">
-        <v>6168</v>
+        <v>66</v>
       </c>
       <c r="M10">
-        <v>4852</v>
+        <v>204</v>
       </c>
       <c r="N10">
-        <v>6082</v>
+        <v>268</v>
       </c>
       <c r="O10">
-        <v>1658</v>
+        <v>94</v>
       </c>
       <c r="P10">
-        <v>6606</v>
+        <v>283</v>
       </c>
       <c r="Q10">
-        <v>4714</v>
+        <v>149</v>
       </c>
       <c r="R10">
-        <v>1530</v>
+        <v>55</v>
       </c>
       <c r="S10">
-        <v>888</v>
+        <v>77</v>
       </c>
       <c r="T10">
-        <v>2590</v>
+        <v>110</v>
       </c>
       <c r="U10">
-        <v>3995</v>
+        <v>140</v>
       </c>
       <c r="V10">
-        <v>25728</v>
+        <v>913</v>
       </c>
       <c r="W10">
-        <v>0.435</v>
+        <v>0.45</v>
       </c>
       <c r="X10">
-        <v>0.371</v>
+        <v>0.288</v>
       </c>
       <c r="Y10">
-        <v>0.798</v>
+        <v>0.761</v>
       </c>
       <c r="Z10">
-        <v>30.1</v>
+        <v>35.2</v>
       </c>
       <c r="AA10">
-        <v>16.7</v>
+        <v>18.3</v>
       </c>
       <c r="AB10">
-        <v>4.3</v>
+        <v>5.7</v>
       </c>
       <c r="AC10">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AD10" t="s">
         <v>137</v>
@@ -1713,76 +1713,76 @@
         <v>23</v>
       </c>
       <c r="F11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>353</v>
+        <v>28</v>
       </c>
       <c r="H11">
-        <v>7971</v>
+        <v>409</v>
       </c>
       <c r="I11">
-        <v>1179</v>
+        <v>36</v>
       </c>
       <c r="J11">
-        <v>2359</v>
+        <v>80</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>523</v>
+        <v>21</v>
       </c>
       <c r="N11">
-        <v>811</v>
+        <v>37</v>
       </c>
       <c r="O11">
-        <v>655</v>
+        <v>36</v>
       </c>
       <c r="P11">
-        <v>2096</v>
+        <v>96</v>
       </c>
       <c r="Q11">
-        <v>322</v>
+        <v>10</v>
       </c>
       <c r="R11">
-        <v>184</v>
+        <v>10</v>
       </c>
       <c r="S11">
-        <v>571</v>
+        <v>31</v>
       </c>
       <c r="T11">
-        <v>470</v>
+        <v>21</v>
       </c>
       <c r="U11">
-        <v>1013</v>
+        <v>52</v>
       </c>
       <c r="V11">
-        <v>2882</v>
+        <v>93</v>
       </c>
       <c r="W11">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="X11">
-        <v>0.053</v>
+        <v>0</v>
       </c>
       <c r="Y11">
-        <v>0.645</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="Z11">
-        <v>22.6</v>
+        <v>14.6</v>
       </c>
       <c r="AA11">
-        <v>8.199999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="AB11">
-        <v>5.9</v>
+        <v>3.4</v>
       </c>
       <c r="AC11">
-        <v>0.9</v>
+        <v>0.4</v>
       </c>
       <c r="AD11" t="s">
         <v>137</v>
@@ -1805,76 +1805,76 @@
         <v>27</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G12">
+        <v>50</v>
+      </c>
+      <c r="H12">
+        <v>902</v>
+      </c>
+      <c r="I12">
         <v>109</v>
       </c>
-      <c r="H12">
-        <v>1585</v>
-      </c>
-      <c r="I12">
-        <v>201</v>
-      </c>
       <c r="J12">
-        <v>451</v>
+        <v>243</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>147</v>
+        <v>90</v>
       </c>
       <c r="N12">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O12">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="P12">
-        <v>306</v>
+        <v>173</v>
       </c>
       <c r="Q12">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R12">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="S12">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="T12">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="U12">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="V12">
-        <v>549</v>
+        <v>308</v>
       </c>
       <c r="W12">
-        <v>0.446</v>
+        <v>0.449</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.8169999999999999</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="Z12">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="AA12">
-        <v>5</v>
+        <v>6.2</v>
       </c>
       <c r="AB12">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AC12">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="AD12" t="s">
         <v>137</v>
@@ -1897,76 +1897,76 @@
         <v>19</v>
       </c>
       <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>46</v>
+      </c>
+      <c r="H13">
+        <v>557</v>
+      </c>
+      <c r="I13">
+        <v>81</v>
+      </c>
+      <c r="J13">
+        <v>200</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>12</v>
       </c>
-      <c r="G13">
-        <v>736</v>
-      </c>
-      <c r="H13">
-        <v>21927</v>
-      </c>
-      <c r="I13">
-        <v>3747</v>
-      </c>
-      <c r="J13">
-        <v>8410</v>
-      </c>
-      <c r="K13">
-        <v>583</v>
-      </c>
-      <c r="L13">
-        <v>1614</v>
-      </c>
       <c r="M13">
-        <v>1835</v>
+        <v>45</v>
       </c>
       <c r="N13">
-        <v>2349</v>
+        <v>59</v>
       </c>
       <c r="O13">
-        <v>566</v>
+        <v>40</v>
       </c>
       <c r="P13">
-        <v>2550</v>
+        <v>84</v>
       </c>
       <c r="Q13">
-        <v>2426</v>
+        <v>58</v>
       </c>
       <c r="R13">
-        <v>732</v>
+        <v>30</v>
       </c>
       <c r="S13">
-        <v>187</v>
+        <v>7</v>
       </c>
       <c r="T13">
-        <v>1606</v>
+        <v>54</v>
       </c>
       <c r="U13">
-        <v>1430</v>
+        <v>46</v>
       </c>
       <c r="V13">
-        <v>9912</v>
+        <v>209</v>
       </c>
       <c r="W13">
-        <v>0.446</v>
+        <v>0.405</v>
       </c>
       <c r="X13">
-        <v>0.361</v>
+        <v>0.167</v>
       </c>
       <c r="Y13">
-        <v>0.781</v>
+        <v>0.763</v>
       </c>
       <c r="Z13">
-        <v>29.8</v>
+        <v>12.1</v>
       </c>
       <c r="AA13">
-        <v>13.5</v>
+        <v>4.5</v>
       </c>
       <c r="AB13">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="AC13">
-        <v>3.3</v>
+        <v>1.3</v>
       </c>
       <c r="AD13" t="s">
         <v>137</v>
@@ -1989,76 +1989,76 @@
         <v>23</v>
       </c>
       <c r="F14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="H14">
-        <v>7490</v>
+        <v>1558</v>
       </c>
       <c r="I14">
-        <v>1219</v>
+        <v>215</v>
       </c>
       <c r="J14">
-        <v>2824</v>
+        <v>462</v>
       </c>
       <c r="K14">
-        <v>288</v>
+        <v>71</v>
       </c>
       <c r="L14">
-        <v>717</v>
+        <v>164</v>
       </c>
       <c r="M14">
-        <v>531</v>
+        <v>46</v>
       </c>
       <c r="N14">
-        <v>677</v>
+        <v>72</v>
       </c>
       <c r="O14">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="P14">
-        <v>609</v>
+        <v>83</v>
       </c>
       <c r="Q14">
-        <v>553</v>
+        <v>95</v>
       </c>
       <c r="R14">
-        <v>213</v>
+        <v>27</v>
       </c>
       <c r="S14">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="T14">
-        <v>407</v>
+        <v>66</v>
       </c>
       <c r="U14">
-        <v>551</v>
+        <v>90</v>
       </c>
       <c r="V14">
-        <v>3257</v>
+        <v>547</v>
       </c>
       <c r="W14">
-        <v>0.432</v>
+        <v>0.465</v>
       </c>
       <c r="X14">
-        <v>0.402</v>
+        <v>0.433</v>
       </c>
       <c r="Y14">
-        <v>0.784</v>
+        <v>0.639</v>
       </c>
       <c r="Z14">
-        <v>35.3</v>
+        <v>31.2</v>
       </c>
       <c r="AA14">
-        <v>15.4</v>
+        <v>10.9</v>
       </c>
       <c r="AB14">
-        <v>2.9</v>
+        <v>1.7</v>
       </c>
       <c r="AC14">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AD14" t="s">
         <v>137</v>
@@ -2081,76 +2081,73 @@
         <v>21</v>
       </c>
       <c r="F15">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>587</v>
+        <v>49</v>
       </c>
       <c r="H15">
-        <v>8789</v>
+        <v>780</v>
       </c>
       <c r="I15">
-        <v>1246</v>
+        <v>125</v>
       </c>
       <c r="J15">
-        <v>2838</v>
+        <v>267</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>389</v>
+        <v>54</v>
       </c>
       <c r="N15">
-        <v>492</v>
+        <v>80</v>
       </c>
       <c r="O15">
-        <v>582</v>
+        <v>66</v>
       </c>
       <c r="P15">
-        <v>1955</v>
+        <v>148</v>
       </c>
       <c r="Q15">
-        <v>343</v>
+        <v>20</v>
       </c>
       <c r="R15">
-        <v>200</v>
+        <v>19</v>
       </c>
       <c r="S15">
-        <v>209</v>
+        <v>17</v>
       </c>
       <c r="T15">
-        <v>376</v>
+        <v>26</v>
       </c>
       <c r="U15">
-        <v>1315</v>
+        <v>117</v>
       </c>
       <c r="V15">
-        <v>2882</v>
+        <v>304</v>
       </c>
       <c r="W15">
-        <v>0.439</v>
-      </c>
-      <c r="X15">
-        <v>0.125</v>
+        <v>0.468</v>
       </c>
       <c r="Y15">
-        <v>0.791</v>
+        <v>0.675</v>
       </c>
       <c r="Z15">
-        <v>15</v>
+        <v>15.9</v>
       </c>
       <c r="AA15">
-        <v>4.9</v>
+        <v>6.2</v>
       </c>
       <c r="AB15">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="AC15">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AD15" t="s">
         <v>137</v>
@@ -2173,76 +2170,76 @@
         <v>24</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>243</v>
+        <v>34</v>
       </c>
       <c r="H16">
-        <v>3970</v>
+        <v>441</v>
       </c>
       <c r="I16">
-        <v>419</v>
+        <v>47</v>
       </c>
       <c r="J16">
-        <v>1096</v>
+        <v>129</v>
       </c>
       <c r="K16">
-        <v>150</v>
+        <v>16</v>
       </c>
       <c r="L16">
-        <v>404</v>
+        <v>49</v>
       </c>
       <c r="M16">
-        <v>93</v>
+        <v>8</v>
       </c>
       <c r="N16">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="O16">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="P16">
-        <v>295</v>
+        <v>32</v>
       </c>
       <c r="Q16">
-        <v>524</v>
+        <v>52</v>
       </c>
       <c r="R16">
-        <v>123</v>
+        <v>12</v>
       </c>
       <c r="S16">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="T16">
-        <v>209</v>
+        <v>31</v>
       </c>
       <c r="U16">
-        <v>291</v>
+        <v>61</v>
       </c>
       <c r="V16">
-        <v>1081</v>
+        <v>118</v>
       </c>
       <c r="W16">
-        <v>0.382</v>
+        <v>0.364</v>
       </c>
       <c r="X16">
-        <v>0.371</v>
+        <v>0.327</v>
       </c>
       <c r="Y16">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>16.3</v>
+        <v>13</v>
       </c>
       <c r="AA16">
-        <v>4.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB16">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="AC16">
-        <v>2.2</v>
+        <v>1.5</v>
       </c>
       <c r="AD16" t="s">
         <v>137</v>
@@ -2357,76 +2354,76 @@
         <v>22</v>
       </c>
       <c r="F18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>552</v>
+        <v>39</v>
       </c>
       <c r="H18">
-        <v>11062</v>
+        <v>538</v>
       </c>
       <c r="I18">
-        <v>1479</v>
+        <v>85</v>
       </c>
       <c r="J18">
-        <v>3543</v>
+        <v>170</v>
       </c>
       <c r="K18">
-        <v>631</v>
+        <v>7</v>
       </c>
       <c r="L18">
-        <v>1587</v>
+        <v>18</v>
       </c>
       <c r="M18">
-        <v>428</v>
+        <v>40</v>
       </c>
       <c r="N18">
-        <v>531</v>
+        <v>56</v>
       </c>
       <c r="O18">
-        <v>343</v>
+        <v>26</v>
       </c>
       <c r="P18">
-        <v>1457</v>
+        <v>75</v>
       </c>
       <c r="Q18">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="R18">
-        <v>246</v>
+        <v>8</v>
       </c>
       <c r="S18">
-        <v>104</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>417</v>
+        <v>20</v>
       </c>
       <c r="U18">
-        <v>1274</v>
+        <v>62</v>
       </c>
       <c r="V18">
-        <v>4017</v>
+        <v>217</v>
       </c>
       <c r="W18">
-        <v>0.417</v>
+        <v>0.5</v>
       </c>
       <c r="X18">
-        <v>0.398</v>
+        <v>0.389</v>
       </c>
       <c r="Y18">
-        <v>0.806</v>
+        <v>0.714</v>
       </c>
       <c r="Z18">
-        <v>20</v>
+        <v>13.8</v>
       </c>
       <c r="AA18">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="AB18">
-        <v>2.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC18">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="AD18" t="s">
         <v>137</v>
@@ -2449,19 +2446,19 @@
         <v>25</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+      <c r="H19">
+        <v>13</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="G19">
-        <v>16</v>
-      </c>
-      <c r="H19">
-        <v>111</v>
-      </c>
-      <c r="I19">
-        <v>13</v>
-      </c>
       <c r="J19">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2470,52 +2467,49 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="Q19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R19">
+        <v>1</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
         <v>2</v>
       </c>
-      <c r="S19">
-        <v>1</v>
-      </c>
-      <c r="T19">
-        <v>9</v>
-      </c>
       <c r="U19">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="V19">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="W19">
-        <v>0.448</v>
-      </c>
-      <c r="Y19">
-        <v>0.375</v>
+        <v>0.333</v>
       </c>
       <c r="Z19">
-        <v>6.9</v>
+        <v>2.2</v>
       </c>
       <c r="AA19">
-        <v>1.8</v>
+        <v>0.7</v>
       </c>
       <c r="AB19">
-        <v>1.1</v>
+        <v>0.2</v>
       </c>
       <c r="AC19">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD19" t="s">
         <v>137</v>
@@ -2538,76 +2532,76 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G20">
-        <v>665</v>
+        <v>50</v>
       </c>
       <c r="H20">
-        <v>17584</v>
+        <v>1114</v>
       </c>
       <c r="I20">
-        <v>2900</v>
+        <v>148</v>
       </c>
       <c r="J20">
-        <v>6033</v>
+        <v>320</v>
       </c>
       <c r="K20">
-        <v>158</v>
+        <v>10</v>
       </c>
       <c r="L20">
-        <v>474</v>
+        <v>25</v>
       </c>
       <c r="M20">
-        <v>1687</v>
+        <v>102</v>
       </c>
       <c r="N20">
-        <v>2239</v>
+        <v>143</v>
       </c>
       <c r="O20">
-        <v>1281</v>
+        <v>88</v>
       </c>
       <c r="P20">
-        <v>3366</v>
+        <v>214</v>
       </c>
       <c r="Q20">
-        <v>907</v>
+        <v>45</v>
       </c>
       <c r="R20">
-        <v>497</v>
+        <v>30</v>
       </c>
       <c r="S20">
+        <v>6</v>
+      </c>
+      <c r="T20">
+        <v>73</v>
+      </c>
+      <c r="U20">
         <v>112</v>
       </c>
-      <c r="T20">
-        <v>1000</v>
-      </c>
-      <c r="U20">
-        <v>1748</v>
-      </c>
       <c r="V20">
-        <v>7645</v>
+        <v>408</v>
       </c>
       <c r="W20">
-        <v>0.481</v>
+        <v>0.463</v>
       </c>
       <c r="X20">
-        <v>0.333</v>
+        <v>0.4</v>
       </c>
       <c r="Y20">
-        <v>0.753</v>
+        <v>0.713</v>
       </c>
       <c r="Z20">
-        <v>26.4</v>
+        <v>22.3</v>
       </c>
       <c r="AA20">
-        <v>11.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB20">
-        <v>5.1</v>
+        <v>4.3</v>
       </c>
       <c r="AC20">
-        <v>1.4</v>
+        <v>0.9</v>
       </c>
       <c r="AD20" t="s">
         <v>137</v>
@@ -2630,76 +2624,76 @@
         <v>18</v>
       </c>
       <c r="F21">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>981</v>
+        <v>21</v>
       </c>
       <c r="H21">
-        <v>28009</v>
+        <v>160</v>
       </c>
       <c r="I21">
-        <v>5028</v>
+        <v>18</v>
       </c>
       <c r="J21">
-        <v>11318</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>977</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>2778</v>
+        <v>5</v>
       </c>
       <c r="M21">
-        <v>2204</v>
+        <v>9</v>
       </c>
       <c r="N21">
-        <v>3030</v>
+        <v>15</v>
       </c>
       <c r="O21">
-        <v>1495</v>
+        <v>20</v>
       </c>
       <c r="P21">
-        <v>5482</v>
+        <v>39</v>
       </c>
       <c r="Q21">
-        <v>1649</v>
+        <v>5</v>
       </c>
       <c r="R21">
-        <v>858</v>
+        <v>4</v>
       </c>
       <c r="S21">
-        <v>246</v>
+        <v>2</v>
       </c>
       <c r="T21">
-        <v>1838</v>
+        <v>11</v>
       </c>
       <c r="U21">
-        <v>3069</v>
+        <v>26</v>
       </c>
       <c r="V21">
-        <v>13237</v>
+        <v>45</v>
       </c>
       <c r="W21">
-        <v>0.444</v>
+        <v>0.321</v>
       </c>
       <c r="X21">
-        <v>0.352</v>
+        <v>0</v>
       </c>
       <c r="Y21">
-        <v>0.727</v>
+        <v>0.6</v>
       </c>
       <c r="Z21">
-        <v>28.6</v>
+        <v>7.6</v>
       </c>
       <c r="AA21">
-        <v>13.5</v>
+        <v>2.1</v>
       </c>
       <c r="AB21">
-        <v>5.6</v>
+        <v>1.9</v>
       </c>
       <c r="AC21">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD21" t="s">
         <v>137</v>
@@ -2814,76 +2808,76 @@
         <v>20</v>
       </c>
       <c r="F23">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>727</v>
+        <v>50</v>
       </c>
       <c r="H23">
-        <v>22368</v>
+        <v>988</v>
       </c>
       <c r="I23">
-        <v>3738</v>
+        <v>170</v>
       </c>
       <c r="J23">
-        <v>9200</v>
+        <v>414</v>
       </c>
       <c r="K23">
-        <v>524</v>
+        <v>8</v>
       </c>
       <c r="L23">
-        <v>1696</v>
+        <v>52</v>
       </c>
       <c r="M23">
-        <v>2242</v>
+        <v>107</v>
       </c>
       <c r="N23">
-        <v>2963</v>
+        <v>151</v>
       </c>
       <c r="O23">
-        <v>738</v>
+        <v>83</v>
       </c>
       <c r="P23">
-        <v>3039</v>
+        <v>189</v>
       </c>
       <c r="Q23">
-        <v>2290</v>
+        <v>77</v>
       </c>
       <c r="R23">
-        <v>1092</v>
+        <v>44</v>
       </c>
       <c r="S23">
-        <v>255</v>
+        <v>14</v>
       </c>
       <c r="T23">
-        <v>1554</v>
+        <v>68</v>
       </c>
       <c r="U23">
-        <v>1645</v>
+        <v>97</v>
       </c>
       <c r="V23">
-        <v>10242</v>
+        <v>455</v>
       </c>
       <c r="W23">
-        <v>0.406</v>
+        <v>0.411</v>
       </c>
       <c r="X23">
-        <v>0.309</v>
+        <v>0.154</v>
       </c>
       <c r="Y23">
-        <v>0.757</v>
+        <v>0.709</v>
       </c>
       <c r="Z23">
-        <v>30.8</v>
+        <v>19.8</v>
       </c>
       <c r="AA23">
-        <v>14.1</v>
+        <v>9.1</v>
       </c>
       <c r="AB23">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="AC23">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AD23" t="s">
         <v>137</v>
@@ -2906,13 +2900,13 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H24">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I24">
         <v>46</v>
@@ -2966,13 +2960,13 @@
         <v>0.656</v>
       </c>
       <c r="Z24">
-        <v>9.699999999999999</v>
+        <v>10</v>
       </c>
       <c r="AA24">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AB24">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AC24">
         <v>0.3</v>
@@ -2998,76 +2992,76 @@
         <v>23</v>
       </c>
       <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2</v>
+      </c>
+      <c r="H25">
+        <v>12</v>
+      </c>
+      <c r="I25">
         <v>3</v>
       </c>
-      <c r="G25">
-        <v>68</v>
-      </c>
-      <c r="H25">
-        <v>752</v>
-      </c>
-      <c r="I25">
-        <v>120</v>
-      </c>
       <c r="J25">
-        <v>235</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="N25">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="O25">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>80</v>
+        <v>3</v>
       </c>
       <c r="Q25">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>134</v>
+        <v>2</v>
       </c>
       <c r="V25">
-        <v>283</v>
+        <v>8</v>
       </c>
       <c r="W25">
-        <v>0.511</v>
+        <v>0.6</v>
       </c>
       <c r="X25">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.739</v>
+        <v>1</v>
       </c>
       <c r="Z25">
-        <v>11.1</v>
+        <v>6</v>
       </c>
       <c r="AA25">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AB25">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AC25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD25" t="s">
         <v>137</v>
@@ -3090,76 +3084,73 @@
         <v>23</v>
       </c>
       <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16</v>
+      </c>
+      <c r="H26">
+        <v>42</v>
+      </c>
+      <c r="I26">
         <v>9</v>
       </c>
-      <c r="G26">
-        <v>358</v>
-      </c>
-      <c r="H26">
-        <v>4771</v>
-      </c>
-      <c r="I26">
-        <v>650</v>
-      </c>
       <c r="J26">
-        <v>1339</v>
+        <v>24</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>6</v>
+      </c>
+      <c r="N26">
+        <v>12</v>
+      </c>
+      <c r="O26">
+        <v>6</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
         <v>2</v>
       </c>
-      <c r="M26">
-        <v>240</v>
-      </c>
-      <c r="N26">
-        <v>389</v>
-      </c>
-      <c r="O26">
-        <v>393</v>
-      </c>
-      <c r="P26">
-        <v>1099</v>
-      </c>
-      <c r="Q26">
-        <v>118</v>
-      </c>
-      <c r="R26">
-        <v>92</v>
-      </c>
       <c r="S26">
-        <v>384</v>
+        <v>6</v>
       </c>
       <c r="T26">
-        <v>403</v>
+        <v>9</v>
       </c>
       <c r="U26">
-        <v>989</v>
+        <v>11</v>
       </c>
       <c r="V26">
-        <v>1540</v>
+        <v>24</v>
       </c>
       <c r="W26">
-        <v>0.485</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
+        <v>0.375</v>
       </c>
       <c r="Y26">
-        <v>0.617</v>
+        <v>0.5</v>
       </c>
       <c r="Z26">
-        <v>13.3</v>
+        <v>2.6</v>
       </c>
       <c r="AA26">
-        <v>4.3</v>
+        <v>1.5</v>
       </c>
       <c r="AB26">
-        <v>3.1</v>
+        <v>1.1</v>
       </c>
       <c r="AC26">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="AD26" t="s">
         <v>137</v>
@@ -3182,76 +3173,76 @@
         <v>22</v>
       </c>
       <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>47</v>
+      </c>
+      <c r="H27">
+        <v>1058</v>
+      </c>
+      <c r="I27">
+        <v>178</v>
+      </c>
+      <c r="J27">
+        <v>394</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>10</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27">
+        <v>153</v>
+      </c>
+      <c r="O27">
+        <v>131</v>
+      </c>
+      <c r="P27">
+        <v>301</v>
+      </c>
+      <c r="Q27">
+        <v>34</v>
+      </c>
+      <c r="R27">
+        <v>38</v>
+      </c>
+      <c r="S27">
         <v>16</v>
       </c>
-      <c r="G27">
-        <v>1083</v>
-      </c>
-      <c r="H27">
-        <v>37638</v>
-      </c>
-      <c r="I27">
-        <v>7679</v>
-      </c>
-      <c r="J27">
-        <v>17024</v>
-      </c>
-      <c r="K27">
-        <v>1163</v>
-      </c>
-      <c r="L27">
-        <v>3365</v>
-      </c>
-      <c r="M27">
-        <v>3521</v>
-      </c>
-      <c r="N27">
-        <v>4860</v>
-      </c>
-      <c r="O27">
-        <v>2557</v>
-      </c>
-      <c r="P27">
-        <v>8157</v>
-      </c>
-      <c r="Q27">
-        <v>1761</v>
-      </c>
-      <c r="R27">
-        <v>1048</v>
-      </c>
-      <c r="S27">
-        <v>421</v>
-      </c>
       <c r="T27">
-        <v>1714</v>
+        <v>68</v>
       </c>
       <c r="U27">
-        <v>2580</v>
+        <v>102</v>
       </c>
       <c r="V27">
-        <v>20042</v>
+        <v>449</v>
       </c>
       <c r="W27">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="X27">
-        <v>0.346</v>
+        <v>0.3</v>
       </c>
       <c r="Y27">
-        <v>0.724</v>
+        <v>0.588</v>
       </c>
       <c r="Z27">
-        <v>34.8</v>
+        <v>22.5</v>
       </c>
       <c r="AA27">
-        <v>18.5</v>
+        <v>9.6</v>
       </c>
       <c r="AB27">
-        <v>7.5</v>
+        <v>6.4</v>
       </c>
       <c r="AC27">
-        <v>1.6</v>
+        <v>0.7</v>
       </c>
       <c r="AD27" t="s">
         <v>137</v>
@@ -3274,76 +3265,76 @@
         <v>23</v>
       </c>
       <c r="F28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>1138</v>
+        <v>476</v>
       </c>
       <c r="I28">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="J28">
-        <v>324</v>
+        <v>123</v>
       </c>
       <c r="K28">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="L28">
-        <v>179</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="N28">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="O28">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="P28">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="Q28">
-        <v>135</v>
+        <v>41</v>
       </c>
       <c r="R28">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="S28">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="T28">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="U28">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="V28">
-        <v>296</v>
+        <v>108</v>
       </c>
       <c r="W28">
-        <v>0.324</v>
+        <v>0.317</v>
       </c>
       <c r="X28">
-        <v>0.324</v>
+        <v>0.311</v>
       </c>
       <c r="Y28">
-        <v>0.622</v>
+        <v>0.5</v>
       </c>
       <c r="Z28">
-        <v>13.4</v>
+        <v>16.4</v>
       </c>
       <c r="AA28">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB28">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="AC28">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AD28" t="s">
         <v>137</v>
@@ -3366,76 +3357,76 @@
         <v>22</v>
       </c>
       <c r="F29">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G29">
-        <v>657</v>
+        <v>24</v>
       </c>
       <c r="H29">
-        <v>13461</v>
+        <v>344</v>
       </c>
       <c r="I29">
-        <v>1517</v>
+        <v>43</v>
       </c>
       <c r="J29">
-        <v>3730</v>
+        <v>119</v>
       </c>
       <c r="K29">
-        <v>941</v>
+        <v>25</v>
       </c>
       <c r="L29">
-        <v>2414</v>
+        <v>62</v>
       </c>
       <c r="M29">
-        <v>351</v>
+        <v>14</v>
       </c>
       <c r="N29">
-        <v>483</v>
+        <v>17</v>
       </c>
       <c r="O29">
-        <v>115</v>
+        <v>6</v>
       </c>
       <c r="P29">
-        <v>1074</v>
+        <v>44</v>
       </c>
       <c r="Q29">
-        <v>1806</v>
+        <v>42</v>
       </c>
       <c r="R29">
-        <v>257</v>
+        <v>13</v>
       </c>
       <c r="S29">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T29">
-        <v>551</v>
+        <v>17</v>
       </c>
       <c r="U29">
-        <v>688</v>
+        <v>23</v>
       </c>
       <c r="V29">
-        <v>4326</v>
+        <v>125</v>
       </c>
       <c r="W29">
-        <v>0.407</v>
+        <v>0.361</v>
       </c>
       <c r="X29">
-        <v>0.39</v>
+        <v>0.403</v>
       </c>
       <c r="Y29">
-        <v>0.727</v>
+        <v>0.824</v>
       </c>
       <c r="Z29">
-        <v>20.5</v>
+        <v>14.3</v>
       </c>
       <c r="AA29">
-        <v>6.6</v>
+        <v>5.2</v>
       </c>
       <c r="AB29">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AC29">
-        <v>2.7</v>
+        <v>1.8</v>
       </c>
       <c r="AD29" t="s">
         <v>137</v>
@@ -3544,19 +3535,19 @@
         <v>26</v>
       </c>
       <c r="F31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="H31">
-        <v>1829</v>
+        <v>63</v>
       </c>
       <c r="I31">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="J31">
-        <v>467</v>
+        <v>14</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -3565,52 +3556,52 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="N31">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="O31">
-        <v>129</v>
+        <v>6</v>
       </c>
       <c r="P31">
-        <v>393</v>
+        <v>14</v>
       </c>
       <c r="Q31">
-        <v>84</v>
+        <v>4</v>
       </c>
       <c r="R31">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="U31">
-        <v>238</v>
+        <v>12</v>
       </c>
       <c r="V31">
-        <v>566</v>
+        <v>23</v>
       </c>
       <c r="W31">
-        <v>0.503</v>
+        <v>0.429</v>
       </c>
       <c r="Y31">
-        <v>0.744</v>
+        <v>0.611</v>
       </c>
       <c r="Z31">
-        <v>14.5</v>
+        <v>3.3</v>
       </c>
       <c r="AA31">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="AB31">
-        <v>3.1</v>
+        <v>0.7</v>
       </c>
       <c r="AC31">
-        <v>0.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD31" t="s">
         <v>137</v>
@@ -3633,76 +3624,76 @@
         <v>22</v>
       </c>
       <c r="F32">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>563</v>
+        <v>12</v>
       </c>
       <c r="H32">
-        <v>14545</v>
+        <v>387</v>
       </c>
       <c r="I32">
-        <v>2227</v>
+        <v>59</v>
       </c>
       <c r="J32">
-        <v>4781</v>
+        <v>129</v>
       </c>
       <c r="K32">
-        <v>478</v>
+        <v>12</v>
       </c>
       <c r="L32">
-        <v>1315</v>
+        <v>31</v>
       </c>
       <c r="M32">
-        <v>758</v>
+        <v>36</v>
       </c>
       <c r="N32">
-        <v>1066</v>
+        <v>48</v>
       </c>
       <c r="O32">
-        <v>994</v>
+        <v>33</v>
       </c>
       <c r="P32">
-        <v>3423</v>
+        <v>91</v>
       </c>
       <c r="Q32">
-        <v>606</v>
+        <v>8</v>
       </c>
       <c r="R32">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="S32">
-        <v>919</v>
+        <v>17</v>
       </c>
       <c r="T32">
-        <v>511</v>
+        <v>9</v>
       </c>
       <c r="U32">
-        <v>1863</v>
+        <v>38</v>
       </c>
       <c r="V32">
-        <v>5690</v>
+        <v>166</v>
       </c>
       <c r="W32">
-        <v>0.466</v>
+        <v>0.457</v>
       </c>
       <c r="X32">
-        <v>0.363</v>
+        <v>0.387</v>
       </c>
       <c r="Y32">
-        <v>0.711</v>
+        <v>0.75</v>
       </c>
       <c r="Z32">
-        <v>25.8</v>
+        <v>32.3</v>
       </c>
       <c r="AA32">
-        <v>10.1</v>
+        <v>13.8</v>
       </c>
       <c r="AB32">
-        <v>6.1</v>
+        <v>7.6</v>
       </c>
       <c r="AC32">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="AD32" t="s">
         <v>137</v>
@@ -3725,76 +3716,76 @@
         <v>19</v>
       </c>
       <c r="F33">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>1049</v>
+        <v>20</v>
       </c>
       <c r="H33">
-        <v>33541</v>
+        <v>145</v>
       </c>
       <c r="I33">
-        <v>5644</v>
+        <v>19</v>
       </c>
       <c r="J33">
-        <v>12479</v>
+        <v>52</v>
       </c>
       <c r="K33">
-        <v>1787</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>4625</v>
+        <v>6</v>
       </c>
       <c r="M33">
-        <v>2504</v>
+        <v>8</v>
       </c>
       <c r="N33">
-        <v>3111</v>
+        <v>14</v>
       </c>
       <c r="O33">
-        <v>1418</v>
+        <v>13</v>
       </c>
       <c r="P33">
-        <v>5433</v>
+        <v>25</v>
       </c>
       <c r="Q33">
-        <v>1765</v>
+        <v>4</v>
       </c>
       <c r="R33">
-        <v>1115</v>
+        <v>8</v>
       </c>
       <c r="S33">
-        <v>541</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>1577</v>
+        <v>20</v>
       </c>
       <c r="U33">
-        <v>2430</v>
+        <v>19</v>
       </c>
       <c r="V33">
-        <v>15579</v>
+        <v>47</v>
       </c>
       <c r="W33">
-        <v>0.452</v>
+        <v>0.365</v>
       </c>
       <c r="X33">
-        <v>0.386</v>
+        <v>0.167</v>
       </c>
       <c r="Y33">
-        <v>0.805</v>
+        <v>0.571</v>
       </c>
       <c r="Z33">
-        <v>32</v>
+        <v>7.3</v>
       </c>
       <c r="AA33">
-        <v>14.9</v>
+        <v>2.4</v>
       </c>
       <c r="AB33">
-        <v>5.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC33">
-        <v>1.7</v>
+        <v>0.2</v>
       </c>
       <c r="AD33" t="s">
         <v>137</v>
@@ -3817,76 +3808,76 @@
         <v>24</v>
       </c>
       <c r="F34">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G34">
-        <v>249</v>
+        <v>47</v>
       </c>
       <c r="H34">
-        <v>4145</v>
+        <v>1218</v>
       </c>
       <c r="I34">
-        <v>550</v>
+        <v>169</v>
       </c>
       <c r="J34">
-        <v>1274</v>
+        <v>379</v>
       </c>
       <c r="K34">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="L34">
-        <v>147</v>
+        <v>44</v>
       </c>
       <c r="M34">
-        <v>300</v>
+        <v>87</v>
       </c>
       <c r="N34">
-        <v>455</v>
+        <v>135</v>
       </c>
       <c r="O34">
-        <v>212</v>
+        <v>69</v>
       </c>
       <c r="P34">
-        <v>604</v>
+        <v>166</v>
       </c>
       <c r="Q34">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="R34">
-        <v>161</v>
+        <v>49</v>
       </c>
       <c r="S34">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="T34">
-        <v>254</v>
+        <v>82</v>
       </c>
       <c r="U34">
-        <v>451</v>
+        <v>128</v>
       </c>
       <c r="V34">
-        <v>1448</v>
+        <v>437</v>
       </c>
       <c r="W34">
-        <v>0.432</v>
+        <v>0.446</v>
       </c>
       <c r="X34">
-        <v>0.327</v>
+        <v>0.273</v>
       </c>
       <c r="Y34">
-        <v>0.659</v>
+        <v>0.644</v>
       </c>
       <c r="Z34">
-        <v>16.6</v>
+        <v>25.9</v>
       </c>
       <c r="AA34">
-        <v>5.8</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AB34">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="AC34">
-        <v>1</v>
+        <v>1.3</v>
       </c>
       <c r="AD34" t="s">
         <v>137</v>
@@ -3909,76 +3900,76 @@
         <v>21</v>
       </c>
       <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>188</v>
+      </c>
+      <c r="I35">
+        <v>28</v>
+      </c>
+      <c r="J35">
+        <v>65</v>
+      </c>
+      <c r="K35">
+        <v>7</v>
+      </c>
+      <c r="L35">
+        <v>16</v>
+      </c>
+      <c r="M35">
+        <v>12</v>
+      </c>
+      <c r="N35">
+        <v>21</v>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35">
+        <v>6</v>
+      </c>
+      <c r="Q35">
+        <v>25</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
         <v>11</v>
       </c>
-      <c r="G35">
-        <v>554</v>
-      </c>
-      <c r="H35">
-        <v>12564</v>
-      </c>
-      <c r="I35">
-        <v>1765</v>
-      </c>
-      <c r="J35">
-        <v>4039</v>
-      </c>
-      <c r="K35">
-        <v>460</v>
-      </c>
-      <c r="L35">
-        <v>1175</v>
-      </c>
-      <c r="M35">
-        <v>720</v>
-      </c>
-      <c r="N35">
-        <v>868</v>
-      </c>
-      <c r="O35">
-        <v>132</v>
-      </c>
-      <c r="P35">
-        <v>943</v>
-      </c>
-      <c r="Q35">
-        <v>1727</v>
-      </c>
-      <c r="R35">
-        <v>286</v>
-      </c>
-      <c r="S35">
-        <v>10</v>
-      </c>
-      <c r="T35">
-        <v>659</v>
-      </c>
       <c r="U35">
-        <v>1057</v>
+        <v>28</v>
       </c>
       <c r="V35">
-        <v>4710</v>
+        <v>75</v>
       </c>
       <c r="W35">
-        <v>0.437</v>
+        <v>0.431</v>
       </c>
       <c r="X35">
-        <v>0.391</v>
+        <v>0.438</v>
       </c>
       <c r="Y35">
-        <v>0.829</v>
+        <v>0.571</v>
       </c>
       <c r="Z35">
-        <v>22.7</v>
+        <v>12.5</v>
       </c>
       <c r="AA35">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AB35">
+        <v>0.4</v>
+      </c>
+      <c r="AC35">
         <v>1.7</v>
-      </c>
-      <c r="AC35">
-        <v>3.1</v>
       </c>
       <c r="AD35" t="s">
         <v>137</v>
@@ -4001,76 +3992,73 @@
         <v>23</v>
       </c>
       <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>28</v>
+      </c>
+      <c r="I36">
+        <v>5</v>
+      </c>
+      <c r="J36">
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>1</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
+        <v>3</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
         <v>11</v>
       </c>
-      <c r="G36">
-        <v>230</v>
-      </c>
-      <c r="H36">
-        <v>2275</v>
-      </c>
-      <c r="I36">
-        <v>259</v>
-      </c>
-      <c r="J36">
-        <v>578</v>
-      </c>
-      <c r="K36">
-        <v>5</v>
-      </c>
-      <c r="L36">
-        <v>25</v>
-      </c>
-      <c r="M36">
-        <v>115</v>
-      </c>
-      <c r="N36">
-        <v>173</v>
-      </c>
-      <c r="O36">
-        <v>158</v>
-      </c>
-      <c r="P36">
-        <v>501</v>
-      </c>
-      <c r="Q36">
-        <v>50</v>
-      </c>
-      <c r="R36">
-        <v>33</v>
-      </c>
-      <c r="S36">
-        <v>87</v>
-      </c>
-      <c r="T36">
-        <v>116</v>
-      </c>
-      <c r="U36">
-        <v>342</v>
-      </c>
-      <c r="V36">
-        <v>638</v>
-      </c>
       <c r="W36">
-        <v>0.448</v>
-      </c>
-      <c r="X36">
-        <v>0.2</v>
+        <v>0.625</v>
       </c>
       <c r="Y36">
-        <v>0.665</v>
+        <v>0.5</v>
       </c>
       <c r="Z36">
-        <v>9.9</v>
+        <v>3.5</v>
       </c>
       <c r="AA36">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="AB36">
-        <v>2.2</v>
+        <v>0.1</v>
       </c>
       <c r="AC36">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AD36" t="s">
         <v>137</v>
@@ -4179,19 +4167,19 @@
         <v>21</v>
       </c>
       <c r="F38">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G38">
-        <v>260</v>
+        <v>26</v>
       </c>
       <c r="H38">
-        <v>3824</v>
+        <v>331</v>
       </c>
       <c r="I38">
-        <v>510</v>
+        <v>56</v>
       </c>
       <c r="J38">
-        <v>947</v>
+        <v>76</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -4200,52 +4188,52 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>367</v>
+        <v>42</v>
       </c>
       <c r="O38">
-        <v>285</v>
+        <v>27</v>
       </c>
       <c r="P38">
-        <v>921</v>
+        <v>79</v>
       </c>
       <c r="Q38">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="R38">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="S38">
-        <v>193</v>
+        <v>20</v>
       </c>
       <c r="T38">
-        <v>245</v>
+        <v>10</v>
       </c>
       <c r="U38">
-        <v>521</v>
+        <v>42</v>
       </c>
       <c r="V38">
-        <v>1200</v>
+        <v>133</v>
       </c>
       <c r="W38">
-        <v>0.539</v>
+        <v>0.737</v>
       </c>
       <c r="Y38">
-        <v>0.49</v>
+        <v>0.5</v>
       </c>
       <c r="Z38">
-        <v>14.7</v>
+        <v>12.7</v>
       </c>
       <c r="AA38">
-        <v>4.6</v>
+        <v>5.1</v>
       </c>
       <c r="AB38">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="AC38">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="AD38" t="s">
         <v>137</v>
@@ -4268,76 +4256,76 @@
         <v>23</v>
       </c>
       <c r="F39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="H39">
-        <v>2130</v>
+        <v>348</v>
       </c>
       <c r="I39">
-        <v>338</v>
+        <v>62</v>
       </c>
       <c r="J39">
-        <v>827</v>
+        <v>163</v>
       </c>
       <c r="K39">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L39">
+        <v>10</v>
+      </c>
+      <c r="M39">
+        <v>37</v>
+      </c>
+      <c r="N39">
         <v>45</v>
       </c>
-      <c r="M39">
-        <v>136</v>
-      </c>
-      <c r="N39">
-        <v>166</v>
-      </c>
       <c r="O39">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="P39">
-        <v>308</v>
+        <v>50</v>
       </c>
       <c r="Q39">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="R39">
-        <v>41</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>140</v>
+        <v>23</v>
       </c>
       <c r="U39">
-        <v>198</v>
+        <v>24</v>
       </c>
       <c r="V39">
-        <v>817</v>
+        <v>162</v>
       </c>
       <c r="W39">
-        <v>0.409</v>
+        <v>0.38</v>
       </c>
       <c r="X39">
-        <v>0.111</v>
+        <v>0.1</v>
       </c>
       <c r="Y39">
-        <v>0.819</v>
+        <v>0.822</v>
       </c>
       <c r="Z39">
-        <v>18.8</v>
+        <v>10.2</v>
       </c>
       <c r="AA39">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB39">
-        <v>2.7</v>
+        <v>1.5</v>
       </c>
       <c r="AC39">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD39" t="s">
         <v>137</v>
@@ -4360,76 +4348,76 @@
         <v>22</v>
       </c>
       <c r="F40">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>868</v>
+        <v>38</v>
       </c>
       <c r="H40">
-        <v>24537</v>
+        <v>469</v>
       </c>
       <c r="I40">
-        <v>3446</v>
+        <v>78</v>
       </c>
       <c r="J40">
-        <v>7174</v>
+        <v>138</v>
       </c>
       <c r="K40">
-        <v>201</v>
+        <v>1</v>
       </c>
       <c r="L40">
-        <v>610</v>
+        <v>2</v>
       </c>
       <c r="M40">
-        <v>2631</v>
+        <v>81</v>
       </c>
       <c r="N40">
-        <v>3273</v>
+        <v>102</v>
       </c>
       <c r="O40">
-        <v>1708</v>
+        <v>35</v>
       </c>
       <c r="P40">
-        <v>6199</v>
+        <v>117</v>
       </c>
       <c r="Q40">
-        <v>2470</v>
+        <v>22</v>
       </c>
       <c r="R40">
-        <v>639</v>
+        <v>9</v>
       </c>
       <c r="S40">
-        <v>592</v>
+        <v>18</v>
       </c>
       <c r="T40">
-        <v>1367</v>
+        <v>32</v>
       </c>
       <c r="U40">
-        <v>2383</v>
+        <v>65</v>
       </c>
       <c r="V40">
-        <v>9724</v>
+        <v>238</v>
       </c>
       <c r="W40">
-        <v>0.48</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="X40">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="Y40">
-        <v>0.804</v>
+        <v>0.794</v>
       </c>
       <c r="Z40">
-        <v>28.3</v>
+        <v>12.3</v>
       </c>
       <c r="AA40">
-        <v>11.2</v>
+        <v>6.3</v>
       </c>
       <c r="AB40">
-        <v>7.1</v>
+        <v>3.1</v>
       </c>
       <c r="AC40">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="AD40" t="s">
         <v>137</v>
@@ -4452,76 +4440,76 @@
         <v>23</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G41">
-        <v>747</v>
+        <v>49</v>
       </c>
       <c r="H41">
-        <v>27618</v>
+        <v>1456</v>
       </c>
       <c r="I41">
-        <v>4319</v>
+        <v>172</v>
       </c>
       <c r="J41">
-        <v>9979</v>
+        <v>405</v>
       </c>
       <c r="K41">
-        <v>1085</v>
+        <v>53</v>
       </c>
       <c r="L41">
-        <v>2867</v>
+        <v>148</v>
       </c>
       <c r="M41">
-        <v>2241</v>
+        <v>90</v>
       </c>
       <c r="N41">
-        <v>2684</v>
+        <v>110</v>
       </c>
       <c r="O41">
-        <v>543</v>
+        <v>22</v>
       </c>
       <c r="P41">
-        <v>2902</v>
+        <v>111</v>
       </c>
       <c r="Q41">
-        <v>2015</v>
+        <v>121</v>
       </c>
       <c r="R41">
-        <v>878</v>
+        <v>44</v>
       </c>
       <c r="S41">
-        <v>313</v>
+        <v>23</v>
       </c>
       <c r="T41">
-        <v>1520</v>
+        <v>79</v>
       </c>
       <c r="U41">
-        <v>1710</v>
+        <v>98</v>
       </c>
       <c r="V41">
-        <v>11964</v>
+        <v>487</v>
       </c>
       <c r="W41">
-        <v>0.433</v>
+        <v>0.425</v>
       </c>
       <c r="X41">
-        <v>0.378</v>
+        <v>0.358</v>
       </c>
       <c r="Y41">
-        <v>0.835</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="Z41">
-        <v>37</v>
+        <v>29.7</v>
       </c>
       <c r="AA41">
-        <v>16</v>
+        <v>9.9</v>
       </c>
       <c r="AB41">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="AC41">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD41" t="s">
         <v>137</v>
@@ -4544,76 +4532,73 @@
         <v>21</v>
       </c>
       <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>26</v>
+      </c>
+      <c r="H42">
+        <v>121</v>
+      </c>
+      <c r="I42">
+        <v>15</v>
+      </c>
+      <c r="J42">
+        <v>42</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>12</v>
+      </c>
+      <c r="N42">
+        <v>21</v>
+      </c>
+      <c r="O42">
         <v>18</v>
       </c>
-      <c r="G42">
-        <v>1005</v>
-      </c>
-      <c r="H42">
-        <v>15891</v>
-      </c>
-      <c r="I42">
-        <v>2402</v>
-      </c>
-      <c r="J42">
-        <v>4939</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>8</v>
-      </c>
-      <c r="M42">
-        <v>1023</v>
-      </c>
-      <c r="N42">
-        <v>1599</v>
-      </c>
-      <c r="O42">
-        <v>1808</v>
-      </c>
       <c r="P42">
-        <v>4708</v>
+        <v>37</v>
       </c>
       <c r="Q42">
-        <v>375</v>
+        <v>2</v>
       </c>
       <c r="R42">
-        <v>432</v>
+        <v>5</v>
       </c>
       <c r="S42">
-        <v>639</v>
+        <v>4</v>
       </c>
       <c r="T42">
-        <v>919</v>
+        <v>12</v>
       </c>
       <c r="U42">
-        <v>2156</v>
+        <v>22</v>
       </c>
       <c r="V42">
-        <v>5827</v>
+        <v>42</v>
       </c>
       <c r="W42">
-        <v>0.486</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="Y42">
-        <v>0.64</v>
+        <v>0.571</v>
       </c>
       <c r="Z42">
-        <v>15.8</v>
+        <v>4.7</v>
       </c>
       <c r="AA42">
-        <v>5.8</v>
+        <v>1.6</v>
       </c>
       <c r="AB42">
-        <v>4.7</v>
+        <v>1.4</v>
       </c>
       <c r="AC42">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="AD42" t="s">
         <v>137</v>
@@ -4636,76 +4621,73 @@
         <v>23</v>
       </c>
       <c r="F43">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G43">
-        <v>564</v>
+        <v>2</v>
       </c>
       <c r="H43">
-        <v>10257</v>
+        <v>6</v>
       </c>
       <c r="I43">
-        <v>1269</v>
+        <v>1</v>
       </c>
       <c r="J43">
-        <v>2304</v>
+        <v>1</v>
       </c>
       <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
         <v>2</v>
       </c>
-      <c r="L43">
-        <v>13</v>
-      </c>
-      <c r="M43">
-        <v>717</v>
-      </c>
       <c r="N43">
-        <v>965</v>
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="P43">
-        <v>2196</v>
+        <v>1</v>
       </c>
       <c r="Q43">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="R43">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="S43">
-        <v>306</v>
+        <v>0</v>
       </c>
       <c r="T43">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="U43">
-        <v>1541</v>
+        <v>0</v>
       </c>
       <c r="V43">
-        <v>3257</v>
+        <v>4</v>
       </c>
       <c r="W43">
-        <v>0.551</v>
-      </c>
-      <c r="X43">
-        <v>0.154</v>
+        <v>1</v>
       </c>
       <c r="Y43">
-        <v>0.743</v>
+        <v>1</v>
       </c>
       <c r="Z43">
-        <v>18.2</v>
+        <v>3</v>
       </c>
       <c r="AA43">
-        <v>5.8</v>
+        <v>2</v>
       </c>
       <c r="AB43">
-        <v>3.9</v>
+        <v>0.5</v>
       </c>
       <c r="AC43">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="AD43" t="s">
         <v>137</v>
@@ -4817,76 +4799,76 @@
         <v>23</v>
       </c>
       <c r="F45">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G45">
-        <v>255</v>
+        <v>50</v>
       </c>
       <c r="H45">
-        <v>6659</v>
+        <v>1288</v>
       </c>
       <c r="I45">
-        <v>918</v>
+        <v>182</v>
       </c>
       <c r="J45">
-        <v>2271</v>
+        <v>405</v>
       </c>
       <c r="K45">
-        <v>191</v>
+        <v>35</v>
       </c>
       <c r="L45">
-        <v>604</v>
+        <v>96</v>
       </c>
       <c r="M45">
-        <v>404</v>
+        <v>104</v>
       </c>
       <c r="N45">
-        <v>523</v>
+        <v>133</v>
       </c>
       <c r="O45">
-        <v>295</v>
+        <v>57</v>
       </c>
       <c r="P45">
-        <v>941</v>
+        <v>175</v>
       </c>
       <c r="Q45">
-        <v>370</v>
+        <v>82</v>
       </c>
       <c r="R45">
-        <v>264</v>
+        <v>77</v>
       </c>
       <c r="S45">
-        <v>93</v>
+        <v>20</v>
       </c>
       <c r="T45">
-        <v>269</v>
+        <v>53</v>
       </c>
       <c r="U45">
-        <v>667</v>
+        <v>143</v>
       </c>
       <c r="V45">
-        <v>2431</v>
+        <v>503</v>
       </c>
       <c r="W45">
-        <v>0.404</v>
+        <v>0.449</v>
       </c>
       <c r="X45">
-        <v>0.316</v>
+        <v>0.365</v>
       </c>
       <c r="Y45">
-        <v>0.772</v>
+        <v>0.782</v>
       </c>
       <c r="Z45">
-        <v>26.1</v>
+        <v>25.8</v>
       </c>
       <c r="AA45">
-        <v>9.5</v>
+        <v>10.1</v>
       </c>
       <c r="AB45">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AC45">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="AD45" t="s">
         <v>137</v>
@@ -4909,76 +4891,73 @@
         <v>22</v>
       </c>
       <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46">
+        <v>30</v>
+      </c>
+      <c r="I46">
+        <v>3</v>
+      </c>
+      <c r="J46">
         <v>12</v>
       </c>
-      <c r="G46">
-        <v>811</v>
-      </c>
-      <c r="H46">
-        <v>17983</v>
-      </c>
-      <c r="I46">
-        <v>2570</v>
-      </c>
-      <c r="J46">
-        <v>5121</v>
-      </c>
       <c r="K46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M46">
-        <v>378</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>646</v>
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>1513</v>
+        <v>3</v>
       </c>
       <c r="P46">
-        <v>4143</v>
+        <v>8</v>
       </c>
       <c r="Q46">
-        <v>836</v>
+        <v>1</v>
       </c>
       <c r="R46">
-        <v>330</v>
+        <v>0</v>
       </c>
       <c r="S46">
-        <v>934</v>
+        <v>0</v>
       </c>
       <c r="T46">
-        <v>748</v>
+        <v>1</v>
       </c>
       <c r="U46">
-        <v>2187</v>
+        <v>5</v>
       </c>
       <c r="V46">
-        <v>5519</v>
+        <v>8</v>
       </c>
       <c r="W46">
-        <v>0.502</v>
-      </c>
-      <c r="X46">
-        <v>0.077</v>
+        <v>0.25</v>
       </c>
       <c r="Y46">
-        <v>0.585</v>
+        <v>1</v>
       </c>
       <c r="Z46">
-        <v>22.2</v>
+        <v>15</v>
       </c>
       <c r="AA46">
-        <v>6.8</v>
+        <v>4</v>
       </c>
       <c r="AB46">
-        <v>5.1</v>
+        <v>4</v>
       </c>
       <c r="AC46">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AD46" t="s">
         <v>137</v>
@@ -5001,76 +4980,76 @@
         <v>20</v>
       </c>
       <c r="F47">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="G47">
-        <v>1522</v>
+        <v>47</v>
       </c>
       <c r="H47">
-        <v>51368</v>
+        <v>958</v>
       </c>
       <c r="I47">
-        <v>11169</v>
+        <v>136</v>
       </c>
       <c r="J47">
-        <v>23734</v>
+        <v>336</v>
       </c>
       <c r="K47">
-        <v>1982</v>
+        <v>14</v>
       </c>
       <c r="L47">
-        <v>5210</v>
+        <v>68</v>
       </c>
       <c r="M47">
-        <v>7240</v>
+        <v>99</v>
       </c>
       <c r="N47">
-        <v>8239</v>
+        <v>128</v>
       </c>
       <c r="O47">
-        <v>1468</v>
+        <v>41</v>
       </c>
       <c r="P47">
-        <v>11489</v>
+        <v>162</v>
       </c>
       <c r="Q47">
-        <v>3651</v>
+        <v>47</v>
       </c>
       <c r="R47">
-        <v>1210</v>
+        <v>29</v>
       </c>
       <c r="S47">
-        <v>1281</v>
+        <v>27</v>
       </c>
       <c r="T47">
-        <v>2494</v>
+        <v>73</v>
       </c>
       <c r="U47">
-        <v>3601</v>
+        <v>105</v>
       </c>
       <c r="V47">
-        <v>31560</v>
+        <v>385</v>
       </c>
       <c r="W47">
-        <v>0.471</v>
+        <v>0.405</v>
       </c>
       <c r="X47">
-        <v>0.38</v>
+        <v>0.206</v>
       </c>
       <c r="Y47">
-        <v>0.879</v>
+        <v>0.773</v>
       </c>
       <c r="Z47">
-        <v>33.8</v>
+        <v>20.4</v>
       </c>
       <c r="AA47">
-        <v>20.7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AB47">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC47">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AD47" t="s">
         <v>137</v>
@@ -5093,19 +5072,19 @@
         <v>23</v>
       </c>
       <c r="F48">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G48">
-        <v>500</v>
+        <v>45</v>
       </c>
       <c r="H48">
-        <v>13129</v>
+        <v>1279</v>
       </c>
       <c r="I48">
-        <v>1788</v>
+        <v>172</v>
       </c>
       <c r="J48">
-        <v>4109</v>
+        <v>399</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -5114,52 +5093,52 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>559</v>
+        <v>57</v>
       </c>
       <c r="N48">
-        <v>936</v>
+        <v>118</v>
       </c>
       <c r="O48">
-        <v>951</v>
+        <v>120</v>
       </c>
       <c r="P48">
-        <v>3414</v>
+        <v>357</v>
       </c>
       <c r="Q48">
-        <v>327</v>
+        <v>25</v>
       </c>
       <c r="R48">
-        <v>226</v>
+        <v>27</v>
       </c>
       <c r="S48">
-        <v>697</v>
+        <v>55</v>
       </c>
       <c r="T48">
-        <v>898</v>
+        <v>85</v>
       </c>
       <c r="U48">
-        <v>1518</v>
+        <v>137</v>
       </c>
       <c r="V48">
-        <v>4135</v>
+        <v>401</v>
       </c>
       <c r="W48">
-        <v>0.435</v>
+        <v>0.431</v>
       </c>
       <c r="Y48">
-        <v>0.597</v>
+        <v>0.483</v>
       </c>
       <c r="Z48">
-        <v>26.3</v>
+        <v>28.4</v>
       </c>
       <c r="AA48">
-        <v>8.300000000000001</v>
+        <v>8.9</v>
       </c>
       <c r="AB48">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
       <c r="AC48">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AD48" t="s">
         <v>137</v>
@@ -5182,19 +5161,19 @@
         <v>23</v>
       </c>
       <c r="F49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G49">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>304</v>
+        <v>284</v>
       </c>
       <c r="I49">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J49">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -5209,31 +5188,31 @@
         <v>36</v>
       </c>
       <c r="O49">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P49">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q49">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="R49">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S49">
         <v>7</v>
       </c>
       <c r="T49">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="U49">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V49">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="W49">
-        <v>0.455</v>
+        <v>0.443</v>
       </c>
       <c r="X49">
         <v>0</v>
@@ -5242,13 +5221,13 @@
         <v>0.778</v>
       </c>
       <c r="Z49">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="AA49">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="AB49">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="AC49">
         <v>0.4</v>
@@ -5274,76 +5253,76 @@
         <v>23</v>
       </c>
       <c r="F50">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G50">
-        <v>649</v>
+        <v>24</v>
       </c>
       <c r="H50">
-        <v>15955</v>
+        <v>144</v>
       </c>
       <c r="I50">
-        <v>2678</v>
+        <v>21</v>
       </c>
       <c r="J50">
-        <v>5180</v>
+        <v>51</v>
       </c>
       <c r="K50">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="L50">
-        <v>196</v>
+        <v>6</v>
       </c>
       <c r="M50">
-        <v>1562</v>
+        <v>22</v>
       </c>
       <c r="N50">
-        <v>2436</v>
+        <v>31</v>
       </c>
       <c r="O50">
-        <v>1280</v>
+        <v>17</v>
       </c>
       <c r="P50">
-        <v>2697</v>
+        <v>30</v>
       </c>
       <c r="Q50">
-        <v>1150</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>751</v>
+        <v>5</v>
       </c>
       <c r="S50">
-        <v>249</v>
+        <v>3</v>
       </c>
       <c r="T50">
-        <v>1166</v>
+        <v>12</v>
       </c>
       <c r="U50">
-        <v>1418</v>
+        <v>16</v>
       </c>
       <c r="V50">
-        <v>6953</v>
+        <v>65</v>
       </c>
       <c r="W50">
-        <v>0.517</v>
+        <v>0.412</v>
       </c>
       <c r="X50">
-        <v>0.179</v>
+        <v>0.167</v>
       </c>
       <c r="Y50">
-        <v>0.641</v>
+        <v>0.71</v>
       </c>
       <c r="Z50">
-        <v>24.6</v>
+        <v>6</v>
       </c>
       <c r="AA50">
-        <v>10.7</v>
+        <v>2.7</v>
       </c>
       <c r="AB50">
-        <v>4.2</v>
+        <v>1.3</v>
       </c>
       <c r="AC50">
-        <v>1.8</v>
+        <v>0.1</v>
       </c>
       <c r="AD50" t="s">
         <v>137</v>
@@ -5366,76 +5345,76 @@
         <v>21</v>
       </c>
       <c r="F51">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G51">
-        <v>1343</v>
+        <v>48</v>
       </c>
       <c r="H51">
-        <v>45880</v>
+        <v>1632</v>
       </c>
       <c r="I51">
-        <v>8668</v>
+        <v>284</v>
       </c>
       <c r="J51">
-        <v>19465</v>
+        <v>647</v>
       </c>
       <c r="K51">
-        <v>2143</v>
+        <v>84</v>
       </c>
       <c r="L51">
-        <v>5816</v>
+        <v>204</v>
       </c>
       <c r="M51">
-        <v>6918</v>
+        <v>139</v>
       </c>
       <c r="N51">
-        <v>8578</v>
+        <v>195</v>
       </c>
       <c r="O51">
-        <v>1092</v>
+        <v>117</v>
       </c>
       <c r="P51">
-        <v>7527</v>
+        <v>309</v>
       </c>
       <c r="Q51">
-        <v>4708</v>
+        <v>115</v>
       </c>
       <c r="R51">
-        <v>1752</v>
+        <v>82</v>
       </c>
       <c r="S51">
-        <v>745</v>
+        <v>50</v>
       </c>
       <c r="T51">
-        <v>3532</v>
+        <v>113</v>
       </c>
       <c r="U51">
-        <v>3643</v>
+        <v>139</v>
       </c>
       <c r="V51">
-        <v>26397</v>
+        <v>791</v>
       </c>
       <c r="W51">
-        <v>0.445</v>
+        <v>0.439</v>
       </c>
       <c r="X51">
-        <v>0.368</v>
+        <v>0.412</v>
       </c>
       <c r="Y51">
-        <v>0.806</v>
+        <v>0.713</v>
       </c>
       <c r="Z51">
-        <v>34.2</v>
+        <v>34</v>
       </c>
       <c r="AA51">
-        <v>19.7</v>
+        <v>16.5</v>
       </c>
       <c r="AB51">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="AC51">
-        <v>3.5</v>
+        <v>2.4</v>
       </c>
       <c r="AD51" t="s">
         <v>137</v>
@@ -5817,76 +5796,73 @@
         <v>22</v>
       </c>
       <c r="F56">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G56">
-        <v>608</v>
+        <v>21</v>
       </c>
       <c r="H56">
-        <v>10910</v>
+        <v>258</v>
       </c>
       <c r="I56">
-        <v>1194</v>
+        <v>33</v>
       </c>
       <c r="J56">
-        <v>2419</v>
+        <v>71</v>
       </c>
       <c r="K56">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>486</v>
+        <v>20</v>
       </c>
       <c r="N56">
-        <v>858</v>
+        <v>33</v>
       </c>
       <c r="O56">
-        <v>919</v>
+        <v>20</v>
       </c>
       <c r="P56">
-        <v>2841</v>
+        <v>53</v>
       </c>
       <c r="Q56">
-        <v>288</v>
+        <v>1</v>
       </c>
       <c r="R56">
-        <v>256</v>
+        <v>10</v>
       </c>
       <c r="S56">
-        <v>532</v>
+        <v>13</v>
       </c>
       <c r="T56">
-        <v>519</v>
+        <v>19</v>
       </c>
       <c r="U56">
-        <v>1270</v>
+        <v>20</v>
       </c>
       <c r="V56">
-        <v>2876</v>
+        <v>86</v>
       </c>
       <c r="W56">
-        <v>0.494</v>
-      </c>
-      <c r="X56">
-        <v>0.333</v>
+        <v>0.465</v>
       </c>
       <c r="Y56">
-        <v>0.5659999999999999</v>
+        <v>0.606</v>
       </c>
       <c r="Z56">
-        <v>17.9</v>
+        <v>12.3</v>
       </c>
       <c r="AA56">
-        <v>4.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB56">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="AC56">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AD56" t="s">
         <v>137</v>
@@ -5909,76 +5885,73 @@
         <v>23</v>
       </c>
       <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <v>18</v>
+      </c>
+      <c r="H57">
+        <v>199</v>
+      </c>
+      <c r="I57">
+        <v>14</v>
+      </c>
+      <c r="J57">
+        <v>37</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>19</v>
+      </c>
+      <c r="N57">
+        <v>20</v>
+      </c>
+      <c r="O57">
+        <v>19</v>
+      </c>
+      <c r="P57">
+        <v>34</v>
+      </c>
+      <c r="Q57">
+        <v>5</v>
+      </c>
+      <c r="R57">
         <v>2</v>
       </c>
-      <c r="G57">
-        <v>43</v>
-      </c>
-      <c r="H57">
-        <v>397</v>
-      </c>
-      <c r="I57">
+      <c r="S57">
+        <v>11</v>
+      </c>
+      <c r="T57">
+        <v>9</v>
+      </c>
+      <c r="U57">
         <v>31</v>
       </c>
-      <c r="J57">
-        <v>88</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>1</v>
-      </c>
-      <c r="M57">
-        <v>37</v>
-      </c>
-      <c r="N57">
+      <c r="V57">
         <v>47</v>
       </c>
-      <c r="O57">
-        <v>34</v>
-      </c>
-      <c r="P57">
-        <v>79</v>
-      </c>
-      <c r="Q57">
-        <v>10</v>
-      </c>
-      <c r="R57">
-        <v>6</v>
-      </c>
-      <c r="S57">
-        <v>22</v>
-      </c>
-      <c r="T57">
-        <v>26</v>
-      </c>
-      <c r="U57">
-        <v>78</v>
-      </c>
-      <c r="V57">
-        <v>99</v>
-      </c>
       <c r="W57">
-        <v>0.352</v>
-      </c>
-      <c r="X57">
-        <v>0</v>
+        <v>0.378</v>
       </c>
       <c r="Y57">
-        <v>0.787</v>
+        <v>0.95</v>
       </c>
       <c r="Z57">
-        <v>9.199999999999999</v>
+        <v>11.1</v>
       </c>
       <c r="AA57">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="AB57">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AC57">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD57" t="s">
         <v>137</v>
@@ -6001,76 +5974,76 @@
         <v>22</v>
       </c>
       <c r="F58">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G58">
-        <v>270</v>
+        <v>23</v>
       </c>
       <c r="H58">
-        <v>3726</v>
+        <v>313</v>
       </c>
       <c r="I58">
-        <v>455</v>
+        <v>53</v>
       </c>
       <c r="J58">
-        <v>1071</v>
+        <v>125</v>
       </c>
       <c r="K58">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L58">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M58">
-        <v>206</v>
+        <v>21</v>
       </c>
       <c r="N58">
-        <v>384</v>
+        <v>40</v>
       </c>
       <c r="O58">
-        <v>444</v>
+        <v>27</v>
       </c>
       <c r="P58">
-        <v>1180</v>
+        <v>75</v>
       </c>
       <c r="Q58">
-        <v>94</v>
+        <v>12</v>
       </c>
       <c r="R58">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="S58">
-        <v>144</v>
+        <v>23</v>
       </c>
       <c r="T58">
-        <v>213</v>
+        <v>32</v>
       </c>
       <c r="U58">
-        <v>482</v>
+        <v>58</v>
       </c>
       <c r="V58">
-        <v>1118</v>
+        <v>127</v>
       </c>
       <c r="W58">
-        <v>0.425</v>
+        <v>0.424</v>
       </c>
       <c r="X58">
-        <v>0.133</v>
+        <v>0</v>
       </c>
       <c r="Y58">
-        <v>0.536</v>
+        <v>0.525</v>
       </c>
       <c r="Z58">
-        <v>13.8</v>
+        <v>13.6</v>
       </c>
       <c r="AA58">
-        <v>4.1</v>
+        <v>5.5</v>
       </c>
       <c r="AB58">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="AC58">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="AD58" t="s">
         <v>137</v>
@@ -6093,76 +6066,76 @@
         <v>21</v>
       </c>
       <c r="F59">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>804</v>
+        <v>48</v>
       </c>
       <c r="H59">
-        <v>26966</v>
+        <v>1025</v>
       </c>
       <c r="I59">
-        <v>4825</v>
+        <v>141</v>
       </c>
       <c r="J59">
-        <v>10719</v>
+        <v>373</v>
       </c>
       <c r="K59">
-        <v>1760</v>
+        <v>57</v>
       </c>
       <c r="L59">
-        <v>4392</v>
+        <v>178</v>
       </c>
       <c r="M59">
-        <v>2237</v>
+        <v>63</v>
       </c>
       <c r="N59">
-        <v>2500</v>
+        <v>74</v>
       </c>
       <c r="O59">
-        <v>747</v>
+        <v>43</v>
       </c>
       <c r="P59">
-        <v>3782</v>
+        <v>143</v>
       </c>
       <c r="Q59">
-        <v>1408</v>
+        <v>72</v>
       </c>
       <c r="R59">
-        <v>747</v>
+        <v>41</v>
       </c>
       <c r="S59">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="T59">
-        <v>1090</v>
+        <v>53</v>
       </c>
       <c r="U59">
-        <v>1398</v>
+        <v>43</v>
       </c>
       <c r="V59">
-        <v>13647</v>
+        <v>402</v>
       </c>
       <c r="W59">
-        <v>0.45</v>
+        <v>0.378</v>
       </c>
       <c r="X59">
-        <v>0.401</v>
+        <v>0.32</v>
       </c>
       <c r="Y59">
-        <v>0.895</v>
+        <v>0.851</v>
       </c>
       <c r="Z59">
-        <v>33.5</v>
+        <v>21.4</v>
       </c>
       <c r="AA59">
-        <v>17</v>
+        <v>8.4</v>
       </c>
       <c r="AB59">
-        <v>4.7</v>
+        <v>3</v>
       </c>
       <c r="AC59">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AD59" t="s">
         <v>137</v>
@@ -6185,76 +6158,70 @@
         <v>18</v>
       </c>
       <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <v>3</v>
+      </c>
+      <c r="H60">
+        <v>11</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
         <v>7</v>
       </c>
-      <c r="G60">
-        <v>102</v>
-      </c>
-      <c r="H60">
-        <v>524</v>
-      </c>
-      <c r="I60">
-        <v>79</v>
-      </c>
-      <c r="J60">
-        <v>222</v>
-      </c>
       <c r="K60">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L60">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="N60">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="P60">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="Q60">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="R60">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S60">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T60">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="U60">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="V60">
-        <v>173</v>
+        <v>4</v>
       </c>
       <c r="W60">
-        <v>0.356</v>
-      </c>
-      <c r="X60">
-        <v>0.208</v>
-      </c>
-      <c r="Y60">
-        <v>0.526</v>
+        <v>0.286</v>
       </c>
       <c r="Z60">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="AA60">
-        <v>1.7</v>
+        <v>1.3</v>
       </c>
       <c r="AB60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="AD60" t="s">
         <v>137</v>
@@ -6277,76 +6244,76 @@
         <v>21</v>
       </c>
       <c r="F61">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G61">
-        <v>438</v>
+        <v>49</v>
       </c>
       <c r="H61">
-        <v>6243</v>
+        <v>786</v>
       </c>
       <c r="I61">
-        <v>841</v>
+        <v>108</v>
       </c>
       <c r="J61">
-        <v>1774</v>
+        <v>201</v>
       </c>
       <c r="K61">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="M61">
-        <v>399</v>
+        <v>43</v>
       </c>
       <c r="N61">
-        <v>691</v>
+        <v>80</v>
       </c>
       <c r="O61">
-        <v>671</v>
+        <v>80</v>
       </c>
       <c r="P61">
-        <v>1640</v>
+        <v>182</v>
       </c>
       <c r="Q61">
-        <v>312</v>
+        <v>38</v>
       </c>
       <c r="R61">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="S61">
-        <v>306</v>
+        <v>44</v>
       </c>
       <c r="T61">
-        <v>400</v>
+        <v>42</v>
       </c>
       <c r="U61">
-        <v>1079</v>
+        <v>140</v>
       </c>
       <c r="V61">
-        <v>2085</v>
+        <v>259</v>
       </c>
       <c r="W61">
-        <v>0.474</v>
+        <v>0.537</v>
       </c>
       <c r="X61">
-        <v>0.167</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.577</v>
+        <v>0.538</v>
       </c>
       <c r="Z61">
-        <v>14.3</v>
+        <v>16</v>
       </c>
       <c r="AA61">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="AB61">
         <v>3.7</v>
       </c>
       <c r="AC61">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="AD61" t="s">
         <v>137</v>
@@ -6369,76 +6336,76 @@
         <v>22</v>
       </c>
       <c r="F62">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G62">
-        <v>591</v>
+        <v>7</v>
       </c>
       <c r="H62">
-        <v>15133</v>
+        <v>35</v>
       </c>
       <c r="I62">
-        <v>2814</v>
+        <v>11</v>
       </c>
       <c r="J62">
-        <v>6111</v>
+        <v>20</v>
       </c>
       <c r="K62">
-        <v>223</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>683</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>1296</v>
+        <v>8</v>
       </c>
       <c r="N62">
-        <v>1860</v>
+        <v>18</v>
       </c>
       <c r="O62">
-        <v>800</v>
+        <v>4</v>
       </c>
       <c r="P62">
-        <v>2737</v>
+        <v>9</v>
       </c>
       <c r="Q62">
-        <v>1249</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>769</v>
+        <v>1</v>
       </c>
       <c r="S62">
-        <v>192</v>
+        <v>1</v>
       </c>
       <c r="T62">
-        <v>1215</v>
+        <v>6</v>
       </c>
       <c r="U62">
-        <v>1526</v>
+        <v>5</v>
       </c>
       <c r="V62">
-        <v>7147</v>
+        <v>31</v>
       </c>
       <c r="W62">
-        <v>0.46</v>
+        <v>0.55</v>
       </c>
       <c r="X62">
-        <v>0.327</v>
+        <v>0.333</v>
       </c>
       <c r="Y62">
-        <v>0.697</v>
+        <v>0.444</v>
       </c>
       <c r="Z62">
-        <v>25.6</v>
+        <v>5</v>
       </c>
       <c r="AA62">
-        <v>12.1</v>
+        <v>4.4</v>
       </c>
       <c r="AB62">
-        <v>4.6</v>
+        <v>1.3</v>
       </c>
       <c r="AC62">
-        <v>2.1</v>
+        <v>0.4</v>
       </c>
       <c r="AD62" t="s">
         <v>137</v>
@@ -6553,76 +6520,73 @@
         <v>22</v>
       </c>
       <c r="F64">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G64">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="H64">
-        <v>5913</v>
+        <v>191</v>
       </c>
       <c r="I64">
-        <v>736</v>
+        <v>17</v>
       </c>
       <c r="J64">
-        <v>1443</v>
+        <v>32</v>
       </c>
       <c r="K64">
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>482</v>
+        <v>15</v>
       </c>
       <c r="N64">
-        <v>903</v>
+        <v>35</v>
       </c>
       <c r="O64">
-        <v>707</v>
+        <v>23</v>
       </c>
       <c r="P64">
-        <v>1944</v>
+        <v>58</v>
       </c>
       <c r="Q64">
-        <v>63</v>
+        <v>1</v>
       </c>
       <c r="R64">
-        <v>119</v>
+        <v>3</v>
       </c>
       <c r="S64">
-        <v>355</v>
+        <v>11</v>
       </c>
       <c r="T64">
-        <v>397</v>
+        <v>16</v>
       </c>
       <c r="U64">
-        <v>887</v>
+        <v>39</v>
       </c>
       <c r="V64">
-        <v>1954</v>
+        <v>49</v>
       </c>
       <c r="W64">
-        <v>0.51</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
+        <v>0.531</v>
       </c>
       <c r="Y64">
-        <v>0.534</v>
+        <v>0.429</v>
       </c>
       <c r="Z64">
-        <v>17.7</v>
+        <v>9.6</v>
       </c>
       <c r="AA64">
-        <v>5.9</v>
+        <v>2.5</v>
       </c>
       <c r="AB64">
-        <v>5.8</v>
+        <v>2.9</v>
       </c>
       <c r="AC64">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="AD64" t="s">
         <v>137</v>
@@ -6645,76 +6609,76 @@
         <v>23</v>
       </c>
       <c r="F65">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G65">
-        <v>788</v>
+        <v>50</v>
       </c>
       <c r="H65">
-        <v>23188</v>
+        <v>1805</v>
       </c>
       <c r="I65">
-        <v>3065</v>
+        <v>231</v>
       </c>
       <c r="J65">
-        <v>7699</v>
+        <v>617</v>
       </c>
       <c r="K65">
-        <v>1238</v>
+        <v>100</v>
       </c>
       <c r="L65">
-        <v>3784</v>
+        <v>323</v>
       </c>
       <c r="M65">
-        <v>898</v>
+        <v>79</v>
       </c>
       <c r="N65">
-        <v>1104</v>
+        <v>105</v>
       </c>
       <c r="O65">
-        <v>192</v>
+        <v>14</v>
       </c>
       <c r="P65">
-        <v>1810</v>
+        <v>153</v>
       </c>
       <c r="Q65">
-        <v>4611</v>
+        <v>299</v>
       </c>
       <c r="R65">
-        <v>933</v>
+        <v>95</v>
       </c>
       <c r="S65">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>1643</v>
+        <v>143</v>
       </c>
       <c r="U65">
-        <v>1100</v>
+        <v>91</v>
       </c>
       <c r="V65">
-        <v>8266</v>
+        <v>641</v>
       </c>
       <c r="W65">
-        <v>0.398</v>
+        <v>0.374</v>
       </c>
       <c r="X65">
-        <v>0.327</v>
+        <v>0.31</v>
       </c>
       <c r="Y65">
-        <v>0.8129999999999999</v>
+        <v>0.752</v>
       </c>
       <c r="Z65">
-        <v>29.4</v>
+        <v>36.1</v>
       </c>
       <c r="AA65">
-        <v>10.5</v>
+        <v>12.8</v>
       </c>
       <c r="AB65">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="AC65">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AD65" t="s">
         <v>137</v>
@@ -6737,76 +6701,73 @@
         <v>23</v>
       </c>
       <c r="F66">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G66">
-        <v>325</v>
+        <v>2</v>
       </c>
       <c r="H66">
-        <v>5351</v>
+        <v>4</v>
       </c>
       <c r="I66">
-        <v>676</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1684</v>
+        <v>1</v>
       </c>
       <c r="K66">
-        <v>256</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>284</v>
+        <v>3</v>
       </c>
       <c r="N66">
-        <v>356</v>
+        <v>4</v>
       </c>
       <c r="O66">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="P66">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="Q66">
-        <v>765</v>
+        <v>1</v>
       </c>
       <c r="R66">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="S66">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="T66">
-        <v>331</v>
+        <v>0</v>
       </c>
       <c r="U66">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="V66">
-        <v>1892</v>
+        <v>3</v>
       </c>
       <c r="W66">
-        <v>0.401</v>
-      </c>
-      <c r="X66">
-        <v>0.366</v>
+        <v>0</v>
       </c>
       <c r="Y66">
-        <v>0.798</v>
+        <v>0.75</v>
       </c>
       <c r="Z66">
-        <v>16.5</v>
+        <v>2</v>
       </c>
       <c r="AA66">
-        <v>5.8</v>
+        <v>1.5</v>
       </c>
       <c r="AB66">
-        <v>1.6</v>
+        <v>0</v>
       </c>
       <c r="AC66">
-        <v>2.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD66" t="s">
         <v>137</v>
